--- a/artfynd/A 43934-2020.xlsx
+++ b/artfynd/A 43934-2020.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66547932</v>
+        <v>66547959</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>89406</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,38 +817,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>546146.7815220336</v>
+        <v>546063.4527929435</v>
       </c>
       <c r="R3" t="n">
-        <v>7250511.195469324</v>
+        <v>7250630.05167741</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -904,7 +900,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>26399</t>
+          <t>26420</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -922,10 +918,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66547941</v>
+        <v>66547956</v>
       </c>
       <c r="B4" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,26 +934,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -966,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>546082.9086560083</v>
+        <v>546050.7359026705</v>
       </c>
       <c r="R4" t="n">
-        <v>7250508.521222089</v>
+        <v>7250615.248374638</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -1025,7 +1021,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>26405</t>
+          <t>26417</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1043,7 +1039,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66547959</v>
+        <v>66547962</v>
       </c>
       <c r="B5" t="n">
         <v>89406</v>
@@ -1083,10 +1079,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>546063.4527929435</v>
+        <v>546098.1722681898</v>
       </c>
       <c r="R5" t="n">
-        <v>7250630.05167741</v>
+        <v>7250653.545782544</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1142,7 +1138,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>26420</t>
+          <t>26423</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1160,10 +1156,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66547947</v>
+        <v>66547910</v>
       </c>
       <c r="B6" t="n">
-        <v>73678</v>
+        <v>89410</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,25 +1168,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6439</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1200,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>546053.5865452399</v>
+        <v>546247.6221593986</v>
       </c>
       <c r="R6" t="n">
-        <v>7250540.188794555</v>
+        <v>7250606.666590711</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1259,7 +1255,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>26409</t>
+          <t>26379</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1277,7 +1273,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66547956</v>
+        <v>66547961</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1312,7 +1308,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1321,10 +1317,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>546050.7359026705</v>
+        <v>546098.1722681898</v>
       </c>
       <c r="R7" t="n">
-        <v>7250615.248374638</v>
+        <v>7250653.545782544</v>
       </c>
       <c r="S7" t="n">
         <v>50</v>
@@ -1380,7 +1376,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>26417</t>
+          <t>26422</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1398,10 +1394,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66547962</v>
+        <v>66547914</v>
       </c>
       <c r="B8" t="n">
-        <v>89406</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1414,34 +1410,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>546098.1722681898</v>
+        <v>546271.7892419223</v>
       </c>
       <c r="R8" t="n">
-        <v>7250653.545782544</v>
+        <v>7250584.099656514</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>26423</t>
+          <t>26383</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66547934</v>
+        <v>66547909</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>89388</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1531,21 +1531,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>546146.7815220336</v>
+        <v>546247.6221593986</v>
       </c>
       <c r="R9" t="n">
-        <v>7250511.195469324</v>
+        <v>7250606.666590711</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>26378</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1632,10 +1632,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66547910</v>
+        <v>66547911</v>
       </c>
       <c r="B10" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1648,34 +1648,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>546247.6221593986</v>
+        <v>546276.5504614948</v>
       </c>
       <c r="R10" t="n">
-        <v>7250606.666590711</v>
+        <v>7250600.030183459</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
@@ -1731,7 +1735,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>26379</t>
+          <t>26380</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1749,10 +1753,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66547961</v>
+        <v>66547951</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1765,38 +1769,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>546098.1722681898</v>
+        <v>546066.0283103959</v>
       </c>
       <c r="R11" t="n">
-        <v>7250653.545782544</v>
+        <v>7250572.512593897</v>
       </c>
       <c r="S11" t="n">
         <v>50</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>26422</t>
+          <t>26412</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66547953</v>
+        <v>66547960</v>
       </c>
       <c r="B12" t="n">
-        <v>89356</v>
+        <v>81236</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1882,38 +1882,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>546146.7815220336</v>
+        <v>546098.1722681898</v>
       </c>
       <c r="R12" t="n">
-        <v>7250511.195469324</v>
+        <v>7250653.545782544</v>
       </c>
       <c r="S12" t="n">
         <v>50</v>
@@ -1969,7 +1973,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>26414</t>
+          <t>26421</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1987,10 +1991,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66547914</v>
+        <v>66547955</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2003,26 +2007,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2031,10 +2035,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>546271.7892419223</v>
+        <v>546050.7359026705</v>
       </c>
       <c r="R13" t="n">
-        <v>7250584.099656514</v>
+        <v>7250615.248374638</v>
       </c>
       <c r="S13" t="n">
         <v>50</v>
@@ -2090,7 +2094,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>26383</t>
+          <t>26416</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2108,10 +2112,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>66547943</v>
+        <v>66547954</v>
       </c>
       <c r="B14" t="n">
-        <v>90074</v>
+        <v>56395</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2120,25 +2124,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2148,10 +2152,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>546082.9086560083</v>
+        <v>546050.7359026705</v>
       </c>
       <c r="R14" t="n">
-        <v>7250508.521222089</v>
+        <v>7250615.248374638</v>
       </c>
       <c r="S14" t="n">
         <v>50</v>
@@ -2207,7 +2211,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>26407</t>
+          <t>26415</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2225,10 +2229,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66547940</v>
+        <v>66547958</v>
       </c>
       <c r="B15" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2241,34 +2245,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>546124.8277847986</v>
+        <v>546063.4527929435</v>
       </c>
       <c r="R15" t="n">
-        <v>7250525.871000655</v>
+        <v>7250630.05167741</v>
       </c>
       <c r="S15" t="n">
         <v>50</v>
@@ -2324,7 +2332,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>26404</t>
+          <t>26419</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2342,10 +2350,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66547938</v>
+        <v>66547913</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2358,38 +2366,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>546124.8277847986</v>
+        <v>546271.7892419223</v>
       </c>
       <c r="R16" t="n">
-        <v>7250525.871000655</v>
+        <v>7250584.099656514</v>
       </c>
       <c r="S16" t="n">
         <v>50</v>
@@ -2445,7 +2449,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>26403</t>
+          <t>26382</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2463,10 +2467,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>66547909</v>
+        <v>66547915</v>
       </c>
       <c r="B17" t="n">
-        <v>89388</v>
+        <v>81236</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2479,34 +2483,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1108</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>546247.6221593986</v>
+        <v>546271.7892419223</v>
       </c>
       <c r="R17" t="n">
-        <v>7250606.666590711</v>
+        <v>7250584.099656514</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2562,7 +2570,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>26378</t>
+          <t>26384</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2580,10 +2588,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>66547911</v>
+        <v>66547912</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2596,28 +2604,24 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
@@ -2683,7 +2687,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>26380</t>
+          <t>26381</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2701,10 +2705,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>66547951</v>
+        <v>66547957</v>
       </c>
       <c r="B19" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2717,21 +2721,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2741,10 +2745,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>546066.0283103959</v>
+        <v>546063.4527929435</v>
       </c>
       <c r="R19" t="n">
-        <v>7250572.512593897</v>
+        <v>7250630.05167741</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2800,7 +2804,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>26412</t>
+          <t>26418</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2818,10 +2822,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>66547945</v>
+        <v>66547932</v>
       </c>
       <c r="B20" t="n">
-        <v>77588</v>
+        <v>77506</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2834,34 +2838,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>546053.5865452399</v>
+        <v>546146.7815220336</v>
       </c>
       <c r="R20" t="n">
-        <v>7250540.188794555</v>
+        <v>7250511.195469324</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2917,7 +2925,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>26408</t>
+          <t>26399</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2935,10 +2943,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>66547960</v>
+        <v>66547941</v>
       </c>
       <c r="B21" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2951,21 +2959,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2979,10 +2987,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>546098.1722681898</v>
+        <v>546082.9086560083</v>
       </c>
       <c r="R21" t="n">
-        <v>7250653.545782544</v>
+        <v>7250508.521222089</v>
       </c>
       <c r="S21" t="n">
         <v>50</v>
@@ -3038,7 +3046,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>26421</t>
+          <t>26405</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3056,10 +3064,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>66547942</v>
+        <v>66547947</v>
       </c>
       <c r="B22" t="n">
-        <v>77506</v>
+        <v>73678</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3068,42 +3076,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>546082.9086560083</v>
+        <v>546053.5865452399</v>
       </c>
       <c r="R22" t="n">
-        <v>7250508.521222089</v>
+        <v>7250540.188794555</v>
       </c>
       <c r="S22" t="n">
         <v>50</v>
@@ -3159,7 +3163,7 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>26406</t>
+          <t>26409</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3177,10 +3181,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66547948</v>
+        <v>66547934</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3193,38 +3197,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>546053.5865452399</v>
+        <v>546146.7815220336</v>
       </c>
       <c r="R23" t="n">
-        <v>7250540.188794555</v>
+        <v>7250511.195469324</v>
       </c>
       <c r="S23" t="n">
         <v>50</v>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>26410</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3298,10 +3298,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>66547955</v>
+        <v>66547953</v>
       </c>
       <c r="B24" t="n">
-        <v>89410</v>
+        <v>89356</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3310,42 +3310,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>546050.7359026705</v>
+        <v>546146.7815220336</v>
       </c>
       <c r="R24" t="n">
-        <v>7250615.248374638</v>
+        <v>7250511.195469324</v>
       </c>
       <c r="S24" t="n">
         <v>50</v>
@@ -3401,7 +3397,7 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>26416</t>
+          <t>26414</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3419,10 +3415,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>66547954</v>
+        <v>66547943</v>
       </c>
       <c r="B25" t="n">
-        <v>56395</v>
+        <v>90074</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3431,25 +3427,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3459,10 +3455,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>546050.7359026705</v>
+        <v>546082.9086560083</v>
       </c>
       <c r="R25" t="n">
-        <v>7250615.248374638</v>
+        <v>7250508.521222089</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3518,7 +3514,7 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>26415</t>
+          <t>26407</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3536,10 +3532,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>66547958</v>
+        <v>66547940</v>
       </c>
       <c r="B26" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3552,38 +3548,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>546063.4527929435</v>
+        <v>546124.8277847986</v>
       </c>
       <c r="R26" t="n">
-        <v>7250630.05167741</v>
+        <v>7250525.871000655</v>
       </c>
       <c r="S26" t="n">
         <v>50</v>
@@ -3639,7 +3631,7 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>26419</t>
+          <t>26404</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3657,10 +3649,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>66547913</v>
+        <v>66547938</v>
       </c>
       <c r="B27" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3673,34 +3665,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>546271.7892419223</v>
+        <v>546124.8277847986</v>
       </c>
       <c r="R27" t="n">
-        <v>7250584.099656514</v>
+        <v>7250525.871000655</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3756,7 +3752,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>26382</t>
+          <t>26403</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3774,10 +3770,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>66547949</v>
+        <v>66547945</v>
       </c>
       <c r="B28" t="n">
-        <v>81236</v>
+        <v>77588</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3790,21 +3786,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1312</v>
+        <v>864</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3873,7 +3869,7 @@
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>26411</t>
+          <t>26408</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3891,10 +3887,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>66547915</v>
+        <v>66547942</v>
       </c>
       <c r="B29" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3907,26 +3903,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3935,10 +3931,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>546271.7892419223</v>
+        <v>546082.9086560083</v>
       </c>
       <c r="R29" t="n">
-        <v>7250584.099656514</v>
+        <v>7250508.521222089</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3994,7 +3990,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>26384</t>
+          <t>26406</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4012,10 +4008,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>66547937</v>
+        <v>66547948</v>
       </c>
       <c r="B30" t="n">
-        <v>89388</v>
+        <v>77506</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4028,34 +4024,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>546124.8277847986</v>
+        <v>546053.5865452399</v>
       </c>
       <c r="R30" t="n">
-        <v>7250525.871000655</v>
+        <v>7250540.188794555</v>
       </c>
       <c r="S30" t="n">
         <v>50</v>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>26402</t>
+          <t>26410</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4129,10 +4129,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>66547912</v>
+        <v>66547949</v>
       </c>
       <c r="B31" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4145,21 +4145,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4169,10 +4169,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>546276.5504614948</v>
+        <v>546053.5865452399</v>
       </c>
       <c r="R31" t="n">
-        <v>7250600.030183459</v>
+        <v>7250540.188794555</v>
       </c>
       <c r="S31" t="n">
         <v>50</v>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>26381</t>
+          <t>26411</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4246,10 +4246,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>66547936</v>
+        <v>66547937</v>
       </c>
       <c r="B32" t="n">
-        <v>81236</v>
+        <v>89388</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4262,38 +4262,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1312</v>
+        <v>1108</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>546146.7815220336</v>
+        <v>546124.8277847986</v>
       </c>
       <c r="R32" t="n">
-        <v>7250511.195469324</v>
+        <v>7250525.871000655</v>
       </c>
       <c r="S32" t="n">
         <v>50</v>
@@ -4349,7 +4345,7 @@
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>26401</t>
+          <t>26402</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4367,10 +4363,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>66547957</v>
+        <v>66547936</v>
       </c>
       <c r="B33" t="n">
-        <v>56395</v>
+        <v>81236</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4383,34 +4379,38 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Stålknippen N, Ly lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>546063.4527929435</v>
+        <v>546146.7815220336</v>
       </c>
       <c r="R33" t="n">
-        <v>7250630.05167741</v>
+        <v>7250511.195469324</v>
       </c>
       <c r="S33" t="n">
         <v>50</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>26418</t>
+          <t>26401</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
